--- a/Design/equipment.xlsx
+++ b/Design/equipment.xlsx
@@ -14,53 +14,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重战士</t>
-  </si>
-  <si>
-    <t>重战士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Parameter8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Parameter1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Parameter2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Parameter3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装备ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">装备图标
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipIcon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipDescribe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升属性2
+属性编号，提升值</t>
+  </si>
+  <si>
+    <t>提升属性3
+属性编号，提升值</t>
+  </si>
+  <si>
+    <t>提升属性4
+属性编号，提升值</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">装备名称
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">装备描述
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">装备名称
+      <t xml:space="preserve">提升属性1
 </t>
     </r>
     <r>
@@ -71,69 +111,44 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>显示在卡面上</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">装备图标
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipIcon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">装备描述
-</t>
+      <t>属性编号，提升值
+1 最大生命值
+2 每击伤害
+3 物理抗性
+4 魔法抗性
+5 物理穿透
+6 魔法穿透
+7 暴击几率
+8 暴击倍率
+9 暴击抵抗
+10 韧性
+11 命中
+12 闪避</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FFFFFF00"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-显示在卡牌详细界面上</t>
+</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipDescribe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升属性1
-属性编号，提升值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升属性2
-属性编号，提升值</t>
-  </si>
-  <si>
-    <t>提升属性3
-属性编号，提升值</t>
-  </si>
-  <si>
-    <t>提升属性4
-属性编号，提升值</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至强之剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -157,13 +172,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFFFF00"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -172,6 +180,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFF00"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -430,64 +445,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -795,7 +810,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -809,56 +824,56 @@
     <col min="9" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="237" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -866,25 +881,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -892,11 +907,15 @@
         <v>100101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C4" s="32"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
@@ -905,9 +924,7 @@
       <c r="A5" s="9">
         <v>100102</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="32"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -919,9 +936,7 @@
       <c r="A6" s="9">
         <v>100103</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="32"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -933,9 +948,7 @@
       <c r="A7" s="9">
         <v>100104</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="32"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -947,9 +960,7 @@
       <c r="A8" s="9">
         <v>100105</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="32"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -961,9 +972,7 @@
       <c r="A9" s="9">
         <v>100106</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="32"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -975,9 +984,7 @@
       <c r="A10" s="9">
         <v>100107</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="32"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -989,9 +996,7 @@
       <c r="A11" s="9">
         <v>100108</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="32"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -1003,9 +1008,7 @@
       <c r="A12" s="9">
         <v>100109</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="32"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -1017,9 +1020,7 @@
       <c r="A13" s="9">
         <v>100110</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="32"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -1031,9 +1032,7 @@
       <c r="A14" s="9">
         <v>100111</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="32"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -1045,9 +1044,7 @@
       <c r="A15" s="13">
         <v>100112</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="33"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1340,7 +1337,7 @@
       <c r="H41" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
